--- a/Results/Correlation/correlation.xlsx
+++ b/Results/Correlation/correlation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1073 +436,857 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Num</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>L0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>L4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>L5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>L6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>L7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>L10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>L11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>L12</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>L14</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>L15</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>KMPH R</t>
+          <t>Gait speed</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L0</t>
+          <t>Num</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0943749689160958</v>
+        <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01384070380899328</v>
+        <v>-0.12</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01156661891900668</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1755587869444466</v>
+        <v>-0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008955235588090343</v>
+        <v>-0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06949586780240737</v>
+        <v>-0.02</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1438492053292889</v>
+        <v>-0.11</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.07928202067408326</v>
+        <v>0.05</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1006104397536047</v>
+        <v>0.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1204802354571728</v>
+        <v>0.04</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1254685603068987</v>
+        <v>-0.03</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1604991760827969</v>
+        <v>0.04</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.06330612454891141</v>
+        <v>0.13</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.271758160729522</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.01530463305204802</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1930135358233574</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>L0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0943749689160958</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1278350994029477</v>
+        <v>-0.14</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1476518082940143</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07767790107612109</v>
+        <v>0.13</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0522924311866535</v>
+        <v>0.08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06141858487611566</v>
+        <v>-0.22</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2650288355417487</v>
+        <v>0.02</v>
       </c>
       <c r="J3" t="n">
-        <v>0.100028497158435</v>
+        <v>-0.19</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06464707010383576</v>
+        <v>-0.01</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09868276941611998</v>
+        <v>-0.05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05496804031395546</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.07957636959115995</v>
+        <v>0.18</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1942872447311319</v>
+        <v>0.37</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1467605466337088</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.03289174587773296</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.1359776505330493</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>L1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01384070380899328</v>
+        <v>-0.12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1278350994029477</v>
+        <v>-0.14</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1083733950950017</v>
+        <v>0.01</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1630305180483445</v>
+        <v>-0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01062952726778181</v>
+        <v>-0.08</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01776382734161292</v>
+        <v>0.14</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1851304897285937</v>
+        <v>0.08</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05202153386235277</v>
+        <v>0.11</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02244581569798015</v>
+        <v>0.08</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1082277514159702</v>
+        <v>0.04</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07653455043649808</v>
+        <v>-0.02</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09479787025621131</v>
+        <v>-0.08</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03512581903475954</v>
+        <v>-0.35</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1195749358050895</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-0.1518201466262504</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1929798454872606</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>L3</t>
+          <t>L2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01156661891900668</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1476518082940143</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1083733950950017</v>
+        <v>0.01</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02168994106022773</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07093079892229047</v>
+        <v>-0.08</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.01809183895458081</v>
+        <v>0.02</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07786074433176764</v>
+        <v>0.1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008234810220971044</v>
+        <v>-0.01</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03409739295440629</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.05761247883801747</v>
+        <v>0.04</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02520762441486405</v>
+        <v>0.02</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1140652890274273</v>
+        <v>0.08</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1302701406783691</v>
+        <v>0.15</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02519945228905444</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.1198687539180956</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-0.003278977474769772</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>L3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1755587869444466</v>
+        <v>-0.03</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.07767790107612109</v>
+        <v>0.13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1630305180483445</v>
+        <v>-0.03</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02168994106022773</v>
+        <v>0.03</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1830132353505913</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1124671427229433</v>
+        <v>-0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1111024691031912</v>
+        <v>-0.02</v>
       </c>
       <c r="J6" t="n">
-        <v>0.231146874436638</v>
+        <v>-0.04</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.05619445067735625</v>
+        <v>-0.04</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1498474554387231</v>
+        <v>0.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1657634154949511</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3343430707890585</v>
+        <v>0.1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03350608222296402</v>
+        <v>-0.01</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0008682489391650293</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.01820466790354303</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.07742308366515623</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008955235588090343</v>
+        <v>-0.01</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0522924311866535</v>
+        <v>0.08</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01062952726778181</v>
+        <v>-0.08</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.07093079892229047</v>
+        <v>-0.08</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1830132353505913</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04337909515688342</v>
+        <v>-0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04242457426577059</v>
+        <v>-0.1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06154087403729847</v>
+        <v>-0.04</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1959562986385847</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.120630295215403</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.007704535530744205</v>
+        <v>-0.01</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01657471801587228</v>
+        <v>0.06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2516593108936548</v>
+        <v>-0.04</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1616635794986783</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-0.02111501762420817</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-0.3707398467934742</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>L6</t>
+          <t>L5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06949586780240737</v>
+        <v>-0.02</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06141858487611566</v>
+        <v>-0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01776382734161292</v>
+        <v>0.14</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01809183895458081</v>
+        <v>0.02</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1124671427229433</v>
+        <v>-0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04337909515688342</v>
+        <v>-0.02</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03643277589118671</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.02725076810932855</v>
+        <v>0.1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1901466607647019</v>
+        <v>-0.01</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3071867848596154</v>
+        <v>0.01</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.002445515003554646</v>
+        <v>-0.02</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.122482973207238</v>
+        <v>-0.08</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.02456252722137347</v>
+        <v>-0.23</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.04029596282526852</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.1965660956263977</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.5691377958266569</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1438492053292889</v>
+        <v>-0.11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2650288355417487</v>
+        <v>0.02</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1851304897285937</v>
+        <v>0.08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07786074433176764</v>
+        <v>0.1</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1111024691031912</v>
+        <v>-0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04242457426577059</v>
+        <v>-0.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03643277589118671</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04370737419074072</v>
+        <v>-0.02</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1612640048763852</v>
+        <v>-0.05</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.07337668159369849</v>
+        <v>0.03</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06956086574021143</v>
+        <v>0.03</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1122090030431952</v>
+        <v>0.03</v>
       </c>
       <c r="O9" t="n">
-        <v>0.214410973417388</v>
+        <v>-0.1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3966144729476123</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.08717090056902872</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.03830582479221392</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.07928202067408326</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.100028497158435</v>
+        <v>-0.19</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05202153386235277</v>
+        <v>0.11</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008234810220971044</v>
+        <v>-0.01</v>
       </c>
       <c r="F10" t="n">
-        <v>0.231146874436638</v>
+        <v>-0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06154087403729847</v>
+        <v>-0.04</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.02725076810932855</v>
+        <v>0.1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04370737419074072</v>
+        <v>-0.02</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05755902283130571</v>
+        <v>0.02</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1413306151565207</v>
+        <v>0.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0.196353432082032</v>
+        <v>-0.03</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1395451559444975</v>
+        <v>-0.09</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03531845226890809</v>
+        <v>-0.04</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1153785740621564</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-0.03106956478244775</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-0.07232572487953193</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1006104397536047</v>
+        <v>0.1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06464707010383576</v>
+        <v>-0.01</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02244581569798015</v>
+        <v>0.08</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03409739295440629</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05619445067735625</v>
+        <v>-0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1959562986385847</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1901466607647019</v>
+        <v>-0.01</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1612640048763852</v>
+        <v>-0.05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05755902283130571</v>
+        <v>0.02</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0636461080089944</v>
+        <v>-0.01</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.02257679925411045</v>
+        <v>0.02</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05793504699673366</v>
+        <v>0.04</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.01074162661762605</v>
+        <v>0.06</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2695425360246776</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.1478550613337321</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.02755289230800302</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>L10</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1204802354571728</v>
+        <v>0.04</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09868276941611998</v>
+        <v>-0.05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1082277514159702</v>
+        <v>0.04</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.05761247883801747</v>
+        <v>0.04</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1498474554387231</v>
+        <v>0.01</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.120630295215403</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3071867848596154</v>
+        <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.07337668159369849</v>
+        <v>0.03</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1413306151565207</v>
+        <v>0.01</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0636461080089944</v>
+        <v>-0.01</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08609683271269253</v>
+        <v>-0.05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01012876019743332</v>
+        <v>0.03</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0419803047899056</v>
+        <v>-0.03</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02473033684045557</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.07096979919825715</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.5124507909131327</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>L11</t>
+          <t>L10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1254685603068987</v>
+        <v>-0.03</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05496804031395546</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07653455043649808</v>
+        <v>-0.02</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02520762441486405</v>
+        <v>0.02</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1657634154949511</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.007704535530744205</v>
+        <v>-0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.002445515003554646</v>
+        <v>-0.02</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06956086574021143</v>
+        <v>0.03</v>
       </c>
       <c r="J13" t="n">
-        <v>0.196353432082032</v>
+        <v>-0.03</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.02257679925411045</v>
+        <v>0.02</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08609683271269253</v>
+        <v>-0.05</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2029611748556457</v>
+        <v>0.02</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0427941851281475</v>
+        <v>0.11</v>
       </c>
       <c r="P13" t="n">
-        <v>0.05552302965377816</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-0.00907777808472493</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-0.005864639908954148</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>L11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1604991760827969</v>
+        <v>0.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.07957636959115995</v>
+        <v>0.18</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09479787025621131</v>
+        <v>-0.08</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1140652890274273</v>
+        <v>0.08</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3343430707890585</v>
+        <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01657471801587228</v>
+        <v>0.06</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.122482973207238</v>
+        <v>-0.08</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1122090030431952</v>
+        <v>0.03</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1395451559444975</v>
+        <v>-0.09</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05793504699673366</v>
+        <v>0.04</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01012876019743332</v>
+        <v>0.03</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2029611748556457</v>
+        <v>0.02</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1122976730766796</v>
+        <v>0.08</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.0467481412841969</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.01682210471562468</v>
-      </c>
-      <c r="R14" t="n">
-        <v>-0.09681758782153141</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.06330612454891141</v>
+        <v>0.13</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1942872447311319</v>
+        <v>0.37</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03512581903475954</v>
+        <v>-0.35</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1302701406783691</v>
+        <v>0.15</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03350608222296402</v>
+        <v>-0.01</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2516593108936548</v>
+        <v>-0.04</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.02456252722137347</v>
+        <v>-0.23</v>
       </c>
       <c r="I15" t="n">
-        <v>0.214410973417388</v>
+        <v>-0.1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03531845226890809</v>
+        <v>-0.04</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01074162661762605</v>
+        <v>0.06</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0419803047899056</v>
+        <v>-0.03</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0427941851281475</v>
+        <v>0.11</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.1122976730766796</v>
+        <v>0.08</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.01705344816288013</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-0.1831985827570009</v>
-      </c>
-      <c r="R15" t="n">
-        <v>-0.08223522673381907</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>Gait speed</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.271758160729522</v>
+        <v>0.28</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1467605466337088</v>
+        <v>0.39</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1195749358050895</v>
+        <v>-0.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02519945228905444</v>
+        <v>-0.05</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0008682489391650293</v>
+        <v>-0.03</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1616635794986783</v>
+        <v>-0.01</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.04029596282526852</v>
+        <v>-0.13</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3966144729476123</v>
+        <v>-0.28</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1153785740621564</v>
+        <v>0.09</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2695425360246776</v>
+        <v>0.27</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02473033684045557</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05552302965377816</v>
+        <v>-0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0467481412841969</v>
+        <v>0.1</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.01705344816288013</v>
+        <v>0.62</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-0.01062978754057316</v>
-      </c>
-      <c r="R16" t="n">
-        <v>-0.02341265019521744</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>L15</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.01530463305204802</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.03289174587773296</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.1518201466262504</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1198687539180956</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.01820466790354303</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.02111501762420817</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.1965660956263977</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-0.08717090056902872</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-0.03106956478244775</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1478550613337321</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.07096979919825715</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-0.00907777808472493</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.01682210471562468</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-0.1831985827570009</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-0.01062978754057316</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>-0.008517272161742074</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>KMPH R</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.1930135358233574</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1359776505330493</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.1929798454872606</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.003278977474769772</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.07742308366515623</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.3707398467934742</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5691377958266569</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.03830582479221392</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-0.07232572487953193</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.02755289230800302</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.5124507909131327</v>
-      </c>
-      <c r="M18" t="n">
-        <v>-0.005864639908954148</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-0.09681758782153141</v>
-      </c>
-      <c r="O18" t="n">
-        <v>-0.08223522673381907</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-0.02341265019521744</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-0.008517272161742074</v>
-      </c>
-      <c r="R18" t="n">
         <v>1</v>
       </c>
     </row>
